--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_1_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_1_genetic_schedule.xlsx
@@ -557,9 +557,9 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>MS 312 - Materials Science
-2B
-Room 232</t>
+          <t>AS 430 - Astrophysics
+3D
+Room 225</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,86 @@
         </is>
       </c>
       <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>MA 202 - Mathematics Advanced
+2D
+Room 160</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>AL 400 - Algorithms
 3A
@@ -578,98 +657,83 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>AS 430 - Astrophysics
-3D
-Room 225</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 11, 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>AXL 416 - Advanced Excel
+3C
+Room 211</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>AL 400 - Algorithms
+3A
+Room 182</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25" ht="50" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>7:30 PM - 8:00 PM</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>MS 312 - Materials Science
 2B
@@ -677,95 +741,13 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 182</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>AXL 416 - Advanced Excel
-3C
-Room 211</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 132</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="50" customHeight="1">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>7:30 PM - 8:00 PM</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n"/>
-    </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -775,15 +757,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H24:H26"/>
+  <mergeCells count="8">
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_1_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_1_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +109,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +563,28 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>AXL 416 - Advanced Excel
-3C
-Room 189</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2B
+Room 305
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>A2 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 304
+Emp: 1</t>
         </is>
       </c>
     </row>
@@ -532,7 +594,9 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="E3" s="5" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +604,9 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="E4" s="5" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,6 +614,16 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2C
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="E5" s="5" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -555,11 +631,13 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>AS 430 - Astrophysics
-3D
-Room 225</t>
+      <c r="B6" s="3" t="n"/>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>A1 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 304
+Emp: 1</t>
         </is>
       </c>
     </row>
@@ -569,7 +647,8 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -577,7 +656,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -585,7 +664,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -607,6 +686,30 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2A
+Room 303
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2C
+Room 303
+Emp: 1</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -614,6 +717,9 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -621,6 +727,9 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -628,6 +737,22 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2B
+Room 303
+Emp: 1</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -635,6 +760,8 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="3" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -642,20 +769,8 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>MA 202 - Mathematics Advanced
-2D
-Room 160</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 117</t>
-        </is>
-      </c>
+      <c r="C17" s="7" t="n"/>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -663,8 +778,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
+      <c r="C18" s="7" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -672,8 +786,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -688,6 +800,38 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>A2 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -695,20 +839,10 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>AXL 416 - Advanced Excel
-3C
-Room 211</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>AL 400 - Algorithms
-3A
-Room 182</t>
-        </is>
-      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="7" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -716,8 +850,10 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="7" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -725,7 +861,30 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>A2 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>A1 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -733,13 +892,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>MS 312 - Materials Science
-2B
-Room 146</t>
-        </is>
-      </c>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -747,7 +902,9 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -757,15 +914,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B25:B26"/>
+  <mergeCells count="17">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
